--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.1/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="930">
   <si>
     <t>anchor score</t>
   </si>
@@ -349,673 +349,673 @@
     <t>cause</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>lady</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>bottles</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
-    <t>farming</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>lady</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>smart</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>stocks</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>win</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>bottles</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>added</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>smart</t>
   </si>
   <si>
     <t>trust</t>
@@ -3169,10 +3169,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3901,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4051,7 +4051,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4101,7 +4101,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4201,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -4451,7 +4451,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K27">
         <v>0.9230769230769231</v>
@@ -4501,7 +4501,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K28">
         <v>0.9166666666666666</v>
@@ -4601,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K30">
         <v>0.9090909090909091</v>
@@ -4701,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K32">
         <v>0.9090909090909091</v>
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K33">
         <v>0.9090909090909091</v>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K34">
         <v>0.9</v>
@@ -4951,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K37">
         <v>0.889763779527559</v>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K38">
         <v>0.8888888888888888</v>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K42">
         <v>0.875</v>
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K43">
         <v>0.875</v>
@@ -5301,7 +5301,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K44">
         <v>0.8666666666666667</v>
@@ -5401,7 +5401,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K46">
         <v>0.8571428571428571</v>
@@ -5451,7 +5451,7 @@
         <v>11</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K47">
         <v>0.8571428571428571</v>
@@ -5551,7 +5551,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K49">
         <v>0.8571428571428571</v>
@@ -5651,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K51">
         <v>0.85</v>
@@ -5751,7 +5751,7 @@
         <v>10</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K53">
         <v>0.8461538461538461</v>
@@ -5801,7 +5801,7 @@
         <v>8</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K54">
         <v>0.8461538461538461</v>
@@ -5851,7 +5851,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K55">
         <v>0.8421052631578947</v>
@@ -5951,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K57">
         <v>0.8333333333333334</v>
@@ -6001,7 +6001,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K58">
         <v>0.8333333333333334</v>
@@ -6101,7 +6101,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K60">
         <v>0.8333333333333334</v>
@@ -6151,7 +6151,7 @@
         <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K61">
         <v>0.8333333333333334</v>
@@ -6201,7 +6201,7 @@
         <v>4</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K62">
         <v>0.8333333333333334</v>
@@ -6251,7 +6251,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K63">
         <v>0.8333333333333334</v>
@@ -6301,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K64">
         <v>0.8297872340425532</v>
@@ -6351,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K65">
         <v>0.8214285714285714</v>
@@ -6401,7 +6401,7 @@
         <v>2</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K66">
         <v>0.8205128205128205</v>
@@ -6451,7 +6451,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K67">
         <v>0.8181818181818182</v>
@@ -6501,7 +6501,7 @@
         <v>2</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K68">
         <v>0.8125</v>
@@ -6551,7 +6551,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K69">
         <v>0.8095238095238095</v>
@@ -6651,7 +6651,7 @@
         <v>8</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K71">
         <v>0.8</v>
@@ -6851,7 +6851,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K75">
         <v>0.7777777777777778</v>
@@ -7001,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K78">
         <v>0.7730496453900709</v>
@@ -7051,28 +7051,28 @@
         <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>111</v>
+        <v>309</v>
       </c>
       <c r="K79">
-        <v>0.7665198237885462</v>
+        <v>0.75</v>
       </c>
       <c r="L79">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="M79">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -7101,16 +7101,16 @@
         <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K80">
         <v>0.75</v>
       </c>
       <c r="L80">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M80">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -7151,28 +7151,28 @@
         <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="K81">
         <v>0.75</v>
       </c>
       <c r="L81">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M81">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -7201,28 +7201,28 @@
         <v>3</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>34</v>
+        <v>311</v>
       </c>
       <c r="K82">
         <v>0.75</v>
       </c>
       <c r="L82">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M82">
         <v>9</v>
       </c>
       <c r="N82">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -7251,28 +7251,28 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="K83">
         <v>0.75</v>
       </c>
       <c r="L83">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -7301,28 +7301,28 @@
         <v>6</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="K84">
         <v>0.75</v>
       </c>
       <c r="L84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N84">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="O84">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -7351,28 +7351,28 @@
         <v>26</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="K85">
         <v>0.75</v>
       </c>
       <c r="L85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N85">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -7401,7 +7401,7 @@
         <v>13</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K86">
         <v>0.75</v>
@@ -7451,28 +7451,28 @@
         <v>10</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>315</v>
+        <v>105</v>
       </c>
       <c r="K87">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L87">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -7501,28 +7501,28 @@
         <v>58</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>105</v>
+        <v>314</v>
       </c>
       <c r="K88">
         <v>0.7333333333333333</v>
       </c>
       <c r="L88">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M88">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="N88">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -7551,7 +7551,7 @@
         <v>7</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>316</v>
+        <v>67</v>
       </c>
       <c r="K89">
         <v>0.7333333333333333</v>
@@ -7560,16 +7560,16 @@
         <v>11</v>
       </c>
       <c r="M89">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -7601,28 +7601,28 @@
         <v>7</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>67</v>
+        <v>315</v>
       </c>
       <c r="K90">
-        <v>0.7333333333333333</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L90">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M90">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="N90">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -7751,7 +7751,7 @@
         <v>19</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K93">
         <v>0.7254901960784313</v>
@@ -7801,7 +7801,7 @@
         <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K94">
         <v>0.7222222222222222</v>
@@ -7851,7 +7851,7 @@
         <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K95">
         <v>0.7222222222222222</v>
@@ -7901,7 +7901,7 @@
         <v>4</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K96">
         <v>0.7222222222222222</v>
@@ -7951,7 +7951,7 @@
         <v>4</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K97">
         <v>0.7142857142857143</v>
@@ -8001,7 +8001,7 @@
         <v>8</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K98">
         <v>0.7142857142857143</v>
@@ -8051,7 +8051,7 @@
         <v>12</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K99">
         <v>0.7142857142857143</v>
@@ -8201,7 +8201,7 @@
         <v>4</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K102">
         <v>0.7</v>
@@ -8251,7 +8251,7 @@
         <v>8</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K103">
         <v>0.7</v>
@@ -8301,7 +8301,7 @@
         <v>4</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K104">
         <v>0.7</v>
@@ -8351,7 +8351,7 @@
         <v>17</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K105">
         <v>0.6875</v>
@@ -8380,28 +8380,28 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1846153846153846</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C106">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="E106">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F106">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K106">
         <v>0.6818181818181818</v>
@@ -8430,49 +8430,49 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1764705882352941</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="K107">
         <v>0.6666666666666666</v>
       </c>
       <c r="L107">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="M107">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="N107">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O107">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>109</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -8486,43 +8486,43 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="K108">
         <v>0.6666666666666666</v>
       </c>
       <c r="L108">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M108">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N108">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -8536,13 +8536,13 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F109">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -8557,10 +8557,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -8586,13 +8586,13 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F110">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
@@ -8607,22 +8607,22 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L110">
+        <v>8</v>
+      </c>
+      <c r="M110">
+        <v>8</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
         <v>4</v>
-      </c>
-      <c r="M110">
-        <v>4</v>
-      </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -8657,10 +8657,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -8707,10 +8707,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -8736,13 +8736,13 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F113">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -8751,28 +8751,28 @@
         <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>329</v>
+        <v>71</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
       </c>
       <c r="L113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -8786,13 +8786,13 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F114">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -8801,7 +8801,7 @@
         <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K114">
         <v>0.6666666666666666</v>
@@ -8836,13 +8836,13 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F115">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
@@ -8851,7 +8851,7 @@
         <v>5</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>63</v>
+        <v>329</v>
       </c>
       <c r="K115">
         <v>0.6666666666666666</v>
@@ -8860,16 +8860,16 @@
         <v>4</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O115">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -8886,13 +8886,13 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E116">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F116">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
@@ -8930,49 +8930,49 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>331</v>
+        <v>124</v>
       </c>
       <c r="K117">
-        <v>0.6666666666666666</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -8983,46 +8983,46 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>125</v>
+        <v>331</v>
       </c>
       <c r="K118">
-        <v>0.6515151515151515</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L118">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="M118">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="N118">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -9030,25 +9030,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1538461538461539</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E119">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F119">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>332</v>
@@ -9080,37 +9080,37 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1481481481481481</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E120">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F120">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>333</v>
       </c>
       <c r="K120">
-        <v>0.6428571428571429</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L120">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="M120">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -9136,13 +9136,13 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F121">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -9151,7 +9151,7 @@
         <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K121">
         <v>0.6410256410256411</v>
@@ -9183,25 +9183,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E122">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F122">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K122">
         <v>0.640625</v>
@@ -9233,22 +9233,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E123">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F123">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>101</v>
@@ -9286,16 +9286,16 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>6</v>
@@ -9330,25 +9330,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.1428571428571428</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>108</v>
@@ -9380,25 +9380,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.1379310344827586</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>334</v>
@@ -9451,7 +9451,7 @@
         <v>13</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K127">
         <v>0.631578947368421</v>
@@ -9480,25 +9480,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>96</v>
@@ -9533,22 +9533,22 @@
         <v>0.125</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="E129">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F129">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>85</v>
@@ -9583,22 +9583,22 @@
         <v>0.125</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>335</v>
@@ -9636,13 +9636,13 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F131">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -9683,22 +9683,22 @@
         <v>0.125</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E132">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>337</v>
@@ -9733,22 +9733,22 @@
         <v>0.125</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>65</v>
@@ -9786,13 +9786,13 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E134">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F134">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -9830,25 +9830,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
+        <v>13</v>
+      </c>
+      <c r="E135">
+        <v>0.85</v>
+      </c>
+      <c r="F135">
+        <v>0.15</v>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135">
         <v>16</v>
-      </c>
-      <c r="E135">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F135">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <v>7</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>339</v>
@@ -9883,22 +9883,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F136">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>340</v>
@@ -9930,28 +9930,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.1111111111111111</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E137">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>8</v>
+        <v>459</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K137">
         <v>0.5925925925925926</v>
@@ -9980,13 +9980,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.1104651162790698</v>
+        <v>0.1</v>
       </c>
       <c r="C138">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -9998,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>459</v>
+        <v>27</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K138">
         <v>0.5905511811023622</v>
@@ -10030,28 +10030,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.1065573770491803</v>
+        <v>0.1</v>
       </c>
       <c r="C139">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K139">
         <v>0.5869565217391305</v>
@@ -10083,25 +10083,25 @@
         <v>0.1</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K140">
         <v>0.5833333333333334</v>
@@ -10136,16 +10136,16 @@
         <v>2</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
         <v>18</v>
@@ -10183,22 +10183,22 @@
         <v>0.1</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>0.98</v>
+        <v>0.71</v>
       </c>
       <c r="F142">
-        <v>0.02000000000000002</v>
+        <v>0.29</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>342</v>
@@ -10233,22 +10233,22 @@
         <v>0.1</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>343</v>
@@ -10280,25 +10280,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.1</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E144">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>344</v>
@@ -10330,28 +10330,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K145">
         <v>0.5609756097560976</v>
@@ -10380,28 +10380,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.09677419354838709</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>3</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K146">
         <v>0.5568181818181818</v>
@@ -10436,13 +10436,13 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E147">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F147">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -10451,7 +10451,7 @@
         <v>10</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K147">
         <v>0.5483870967741935</v>
@@ -10480,25 +10480,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="E148">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F148">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>345</v>
@@ -10530,25 +10530,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E149">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F149">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>346</v>
@@ -10580,25 +10580,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C150">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="E150">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F150">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>347</v>
@@ -10630,25 +10630,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>348</v>
@@ -10686,13 +10686,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E152">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F152">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -10736,16 +10736,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>11</v>
@@ -10780,28 +10780,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.08333333333333333</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E154">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K154">
         <v>0.5116279069767442</v>
@@ -10830,25 +10830,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.08333333333333333</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E155">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F155">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>100</v>
@@ -10880,25 +10880,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.07843137254901961</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>350</v>
@@ -10930,13 +10930,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E157">
         <v>0.75</v>
@@ -10948,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>351</v>
@@ -10980,25 +10980,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>352</v>
@@ -11030,25 +11030,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E159">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>353</v>
@@ -11086,16 +11086,16 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>14</v>
@@ -11136,13 +11136,13 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="E161">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F161">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
@@ -11180,7 +11180,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>356</v>
@@ -11230,25 +11230,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F163">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>55</v>
@@ -11286,16 +11286,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>15</v>
@@ -11336,13 +11336,13 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E165">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F165">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
@@ -11386,13 +11386,13 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E166">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
@@ -11430,28 +11430,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
+        <v>8</v>
+      </c>
+      <c r="E167">
+        <v>0.88</v>
+      </c>
+      <c r="F167">
+        <v>0.12</v>
+      </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167">
         <v>16</v>
       </c>
-      <c r="E167">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F167">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G167" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167">
-        <v>15</v>
-      </c>
       <c r="J167" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K167">
         <v>0.5</v>
@@ -11480,25 +11480,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E168">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F168">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>360</v>
@@ -11536,16 +11536,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>16</v>
@@ -11586,13 +11586,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E170">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F170">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -11636,16 +11636,16 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
         <v>16</v>
@@ -11680,25 +11680,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F172">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>363</v>
@@ -11730,7 +11730,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11748,7 +11748,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>364</v>
@@ -11780,25 +11780,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>88</v>
@@ -11830,25 +11830,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.05555555555555555</v>
+        <v>0.05</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E175">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F175">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>365</v>
@@ -11880,25 +11880,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.05263157894736842</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>42</v>
@@ -11930,25 +11930,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F177">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>366</v>
@@ -11980,7 +11980,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -11998,10 +11998,10 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K178">
         <v>0.4761904761904762</v>
@@ -12030,7 +12030,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12048,7 +12048,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>367</v>
@@ -12080,25 +12080,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>368</v>
@@ -12130,7 +12130,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>369</v>
@@ -12180,7 +12180,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12198,7 +12198,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>370</v>
@@ -12236,13 +12236,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -12251,7 +12251,7 @@
         <v>23</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K183">
         <v>0.4642857142857143</v>
@@ -12286,16 +12286,16 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>23</v>
@@ -12336,13 +12336,13 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
@@ -12380,7 +12380,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>372</v>
@@ -12430,28 +12430,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K187">
         <v>0.4545454545454545</v>
@@ -12480,7 +12480,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12498,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>373</v>
@@ -12536,16 +12536,16 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
         <v>25</v>
@@ -12580,25 +12580,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>375</v>
@@ -12630,25 +12630,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03846153846153846</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>376</v>
@@ -12680,25 +12680,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03703703703703703</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>377</v>
@@ -12730,28 +12730,28 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03333333333333333</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K193">
         <v>0.45</v>
@@ -12780,25 +12780,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>378</v>
@@ -12830,25 +12830,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0303030303030303</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E195">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F195">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>379</v>
@@ -12880,25 +12880,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>380</v>
@@ -12930,25 +12930,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02985074626865672</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>381</v>
@@ -12980,28 +12980,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02941176470588235</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K198">
         <v>0.4333333333333333</v>
@@ -13030,28 +13030,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K199">
         <v>0.4285714285714285</v>
@@ -13080,25 +13080,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02884615384615385</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>382</v>
@@ -13130,25 +13130,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>383</v>
@@ -13180,7 +13180,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>384</v>
@@ -13230,7 +13230,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13248,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>385</v>
@@ -13280,25 +13280,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>386</v>
@@ -13336,16 +13336,16 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>37</v>
@@ -13380,25 +13380,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.1899999999999999</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>388</v>
@@ -13430,25 +13430,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E207">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>389</v>
@@ -13480,7 +13480,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>95</v>
@@ -13533,25 +13533,25 @@
         <v>0.025</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K209">
         <v>0.4137931034482759</v>
@@ -13586,16 +13586,16 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
         <v>39</v>
@@ -13633,25 +13633,25 @@
         <v>0.025</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K211">
         <v>0.4090909090909091</v>
@@ -13680,28 +13680,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F212">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K212">
         <v>0.4074074074074074</v>
@@ -13730,25 +13730,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>391</v>
@@ -13780,25 +13780,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E214">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F214">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>392</v>
@@ -13830,25 +13830,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>82</v>
@@ -13880,25 +13880,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>80</v>
@@ -13930,25 +13930,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>393</v>
@@ -13980,25 +13980,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>394</v>
@@ -14030,25 +14030,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>395</v>
@@ -14080,25 +14080,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D220">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E220">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F220">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>396</v>
@@ -14130,25 +14130,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>397</v>
@@ -14183,22 +14183,22 @@
         <v>0.02173913043478261</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E222">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F222">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>398</v>
@@ -14233,22 +14233,22 @@
         <v>0.02173913043478261</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>0.29</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>399</v>
@@ -14280,25 +14280,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02173913043478261</v>
+        <v>0.02</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>400</v>
@@ -14330,25 +14330,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02173913043478261</v>
+        <v>0.02</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E225">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="F225">
-        <v>0.06999999999999995</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>401</v>
@@ -14380,28 +14380,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K226">
         <v>0.375</v>
@@ -14430,28 +14430,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>0.33</v>
+        <v>0.89</v>
       </c>
       <c r="F227">
-        <v>0.6699999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K227">
         <v>0.3658536585365854</v>
@@ -14480,28 +14480,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K228">
         <v>0.3636363636363636</v>
@@ -14530,25 +14530,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E229">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F229">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>402</v>
@@ -14580,7 +14580,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01818181818181818</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14598,10 +14598,10 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K230">
         <v>0.3632075471698113</v>
@@ -14630,28 +14630,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01785714285714286</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E231">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F231">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K231">
         <v>0.36</v>
@@ -14680,25 +14680,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01694915254237288</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>403</v>
@@ -14730,28 +14730,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01666666666666667</v>
+        <v>0.015625</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F233">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K233">
         <v>0.3529411764705883</v>
@@ -14780,25 +14780,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01587301587301587</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>404</v>
@@ -14830,28 +14830,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.015625</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K235">
         <v>0.3461538461538461</v>
@@ -14880,7 +14880,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01470588235294118</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14898,10 +14898,10 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K236">
         <v>0.3392857142857143</v>
@@ -14930,25 +14930,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01265822784810127</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>227</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F237">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>405</v>
@@ -14980,25 +14980,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01136363636363636</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>76</v>
@@ -15030,28 +15030,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01136363636363636</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="E239">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F239">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>87</v>
+        <v>306</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K239">
         <v>0.3333333333333333</v>
@@ -15080,25 +15080,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01111111111111111</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>406</v>
@@ -15130,25 +15130,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.009708737864077669</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>407</v>
@@ -15180,25 +15180,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.009174311926605505</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E242">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F242">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>408</v>
@@ -15230,25 +15230,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.006711409395973154</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>106</v>
@@ -15280,25 +15280,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.006211180124223602</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>409</v>
@@ -15330,25 +15330,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.005649717514124294</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E245">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F245">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>410</v>
@@ -15380,25 +15380,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.005376344086021506</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>411</v>
@@ -15430,13 +15430,13 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.004950495049504951</v>
+        <v>0.003194888178913738</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E247">
         <v>0.93</v>
@@ -15448,7 +15448,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>412</v>
@@ -15480,25 +15480,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.004424778761061947</v>
+        <v>0.00310880829015544</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D248">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E248">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F248">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>225</v>
+        <v>962</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>413</v>
@@ -15530,25 +15530,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.003194888178913738</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E249">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F249">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>109</v>
@@ -15580,25 +15580,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.00310880829015544</v>
+        <v>0.002865329512893983</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E250">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F250">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>962</v>
+        <v>348</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>102</v>
@@ -15630,25 +15630,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002949852507374631</v>
+        <v>0.002333722287047841</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E251">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F251">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>338</v>
+        <v>855</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>414</v>
@@ -15680,25 +15680,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002865329512893983</v>
+        <v>0.002100840336134454</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E252">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F252">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>348</v>
+        <v>475</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>415</v>
@@ -15730,25 +15730,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002333722287047841</v>
+        <v>0.001932367149758454</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D253">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E253">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F253">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>855</v>
+        <v>2066</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>416</v>
@@ -15780,25 +15780,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002100840336134454</v>
+        <v>0.00186219739292365</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E254">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F254">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>417</v>
@@ -15830,28 +15830,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.001932367149758454</v>
+        <v>0.001748251748251748</v>
       </c>
       <c r="C255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D255">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E255">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F255">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>2066</v>
+        <v>1142</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K255">
         <v>0.3157894736842105</v>
@@ -15880,25 +15880,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.00186219739292365</v>
+        <v>0.001661129568106312</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D256">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="E256">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F256">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>536</v>
+        <v>3005</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>418</v>
@@ -15930,25 +15930,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.001748251748251748</v>
+        <v>0.001597444089456869</v>
       </c>
       <c r="C257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E257">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F257">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>1142</v>
+        <v>625</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>419</v>
@@ -15980,25 +15980,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.001661129568106312</v>
+        <v>0.001177856301531213</v>
       </c>
       <c r="C258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="E258">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F258">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>3005</v>
+        <v>848</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>420</v>
@@ -16030,25 +16030,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.001597444089456869</v>
+        <v>0.001166861143523921</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E259">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F259">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>625</v>
+        <v>856</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>421</v>
@@ -16080,25 +16080,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.001177856301531213</v>
+        <v>0.0006323110970597534</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E260">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F260">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>848</v>
+        <v>3161</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>422</v>
@@ -16126,30 +16126,6 @@
       </c>
     </row>
     <row r="261" spans="1:17">
-      <c r="A261" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B261">
-        <v>0.001166861143523921</v>
-      </c>
-      <c r="C261">
-        <v>1</v>
-      </c>
-      <c r="D261">
-        <v>45</v>
-      </c>
-      <c r="E261">
-        <v>0.98</v>
-      </c>
-      <c r="F261">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>856</v>
-      </c>
       <c r="J261" s="1" t="s">
         <v>423</v>
       </c>
@@ -16176,30 +16152,6 @@
       </c>
     </row>
     <row r="262" spans="1:17">
-      <c r="A262" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B262">
-        <v>0.0006323110970597534</v>
-      </c>
-      <c r="C262">
-        <v>2</v>
-      </c>
-      <c r="D262">
-        <v>40</v>
-      </c>
-      <c r="E262">
-        <v>0.95</v>
-      </c>
-      <c r="F262">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262">
-        <v>3161</v>
-      </c>
       <c r="J262" s="1" t="s">
         <v>424</v>
       </c>
@@ -16227,7 +16179,7 @@
     </row>
     <row r="263" spans="1:17">
       <c r="J263" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K263">
         <v>0.3043478260869565</v>
@@ -16253,7 +16205,7 @@
     </row>
     <row r="264" spans="1:17">
       <c r="J264" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K264">
         <v>0.3043478260869565</v>
@@ -16487,7 +16439,7 @@
     </row>
     <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K273">
         <v>0.2857142857142857</v>
@@ -16721,7 +16673,7 @@
     </row>
     <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K282">
         <v>0.2857142857142857</v>
@@ -16799,7 +16751,7 @@
     </row>
     <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K285">
         <v>0.2857142857142857</v>
@@ -17215,7 +17167,7 @@
     </row>
     <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K301">
         <v>0.2626506024096386</v>
@@ -17397,7 +17349,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K308">
         <v>0.25</v>
@@ -17449,7 +17401,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K310">
         <v>0.25</v>
@@ -17475,7 +17427,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K311">
         <v>0.25</v>
@@ -17787,7 +17739,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K323">
         <v>0.2435897435897436</v>
@@ -17839,7 +17791,7 @@
     </row>
     <row r="325" spans="10:17">
       <c r="J325" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K325">
         <v>0.2372881355932203</v>
@@ -17865,7 +17817,7 @@
     </row>
     <row r="326" spans="10:17">
       <c r="J326" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K326">
         <v>0.2361111111111111</v>
@@ -17969,7 +17921,7 @@
     </row>
     <row r="330" spans="10:17">
       <c r="J330" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K330">
         <v>0.2321428571428572</v>
@@ -18099,7 +18051,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K335">
         <v>0.2222222222222222</v>
@@ -18307,7 +18259,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K343">
         <v>0.2222222222222222</v>
@@ -18333,7 +18285,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K344">
         <v>0.2173913043478261</v>
@@ -18411,7 +18363,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K347">
         <v>0.2105263157894737</v>
@@ -18463,7 +18415,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K349">
         <v>0.2</v>
@@ -18801,7 +18753,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K362">
         <v>0.1935483870967742</v>
@@ -18905,7 +18857,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K366">
         <v>0.1875</v>
@@ -18957,7 +18909,7 @@
     </row>
     <row r="368" spans="10:17">
       <c r="J368" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K368">
         <v>0.1851851851851852</v>
@@ -19061,7 +19013,7 @@
     </row>
     <row r="372" spans="10:17">
       <c r="J372" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K372">
         <v>0.1785714285714286</v>
@@ -19087,7 +19039,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K373">
         <v>0.1774193548387097</v>
@@ -19139,7 +19091,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K375">
         <v>0.1730769230769231</v>
@@ -19243,7 +19195,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K379">
         <v>0.1666666666666667</v>
@@ -19373,7 +19325,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K384">
         <v>0.1666666666666667</v>
@@ -19477,7 +19429,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K388">
         <v>0.1666666666666667</v>
@@ -19633,7 +19585,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K394">
         <v>0.1666666666666667</v>
@@ -19789,7 +19741,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K400">
         <v>0.1614457831325301</v>
@@ -20049,7 +20001,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K410">
         <v>0.148936170212766</v>
@@ -20465,7 +20417,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K426">
         <v>0.1428571428571428</v>
@@ -20829,7 +20781,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K440">
         <v>0.1304347826086956</v>
@@ -20907,7 +20859,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K443">
         <v>0.1293103448275862</v>
@@ -20959,7 +20911,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K445">
         <v>0.1290322580645161</v>
@@ -20985,7 +20937,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K446">
         <v>0.1276595744680851</v>
@@ -21375,7 +21327,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K461">
         <v>0.125</v>
@@ -21609,7 +21561,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K470">
         <v>0.1153846153846154</v>
@@ -22103,7 +22055,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K489">
         <v>0.1071428571428571</v>
@@ -22207,7 +22159,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K493">
         <v>0.1048387096774194</v>
@@ -22311,7 +22263,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K497">
         <v>0.1014492753623188</v>
@@ -22805,7 +22757,7 @@
     </row>
     <row r="516" spans="10:17">
       <c r="J516" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K516">
         <v>0.09090909090909091</v>
@@ -22909,7 +22861,7 @@
     </row>
     <row r="520" spans="10:17">
       <c r="J520" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K520">
         <v>0.09090909090909091</v>
@@ -23195,7 +23147,7 @@
     </row>
     <row r="531" spans="10:17">
       <c r="J531" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K531">
         <v>0.09090909090909091</v>
@@ -23273,7 +23225,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K534">
         <v>0.08695652173913043</v>
@@ -23481,7 +23433,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K542">
         <v>0.08333333333333333</v>
@@ -23767,7 +23719,7 @@
     </row>
     <row r="553" spans="10:17">
       <c r="J553" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K553">
         <v>0.08</v>
@@ -24677,7 +24629,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K588">
         <v>0.06666666666666667</v>
@@ -25275,7 +25227,7 @@
     </row>
     <row r="611" spans="10:17">
       <c r="J611" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K611">
         <v>0.06074766355140187</v>
@@ -25405,7 +25357,7 @@
     </row>
     <row r="616" spans="10:17">
       <c r="J616" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K616">
         <v>0.05882352941176471</v>
@@ -25665,7 +25617,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K626">
         <v>0.05633802816901409</v>
@@ -25925,7 +25877,7 @@
     </row>
     <row r="636" spans="10:17">
       <c r="J636" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K636">
         <v>0.05263157894736842</v>
@@ -26211,7 +26163,7 @@
     </row>
     <row r="647" spans="10:17">
       <c r="J647" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K647">
         <v>0.05039193729003359</v>
@@ -26367,7 +26319,7 @@
     </row>
     <row r="653" spans="10:17">
       <c r="J653" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K653">
         <v>0.04888888888888889</v>
@@ -26601,7 +26553,7 @@
     </row>
     <row r="662" spans="10:17">
       <c r="J662" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K662">
         <v>0.04661016949152542</v>
@@ -26809,7 +26761,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K670">
         <v>0.04545454545454546</v>
@@ -26913,7 +26865,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K674">
         <v>0.04395604395604396</v>
@@ -26939,7 +26891,7 @@
     </row>
     <row r="675" spans="10:17">
       <c r="J675" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K675">
         <v>0.04347826086956522</v>
@@ -27069,7 +27021,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K680">
         <v>0.04294478527607362</v>
@@ -27693,7 +27645,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K704">
         <v>0.03697996918335902</v>
@@ -27979,7 +27931,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K715">
         <v>0.03412809724170173</v>
@@ -28265,7 +28217,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K726">
         <v>0.03127014829142489</v>
@@ -28317,7 +28269,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K728">
         <v>0.03076923076923077</v>
@@ -28395,7 +28347,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K731">
         <v>0.0303030303030303</v>
@@ -28603,7 +28555,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K739">
         <v>0.02873563218390805</v>
@@ -28811,7 +28763,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K747">
         <v>0.02702702702702703</v>
@@ -29773,7 +29725,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K784">
         <v>0.02061855670103093</v>
@@ -30475,7 +30427,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K811">
         <v>0.01470588235294118</v>
@@ -30501,7 +30453,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K812">
         <v>0.01466781708369284</v>
@@ -30735,7 +30687,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K821">
         <v>0.01187871209753048</v>
@@ -30787,7 +30739,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K823">
         <v>0.0115606936416185</v>
@@ -30813,7 +30765,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K824">
         <v>0.01136363636363636</v>
@@ -30865,7 +30817,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K826">
         <v>0.0101010101010101</v>
@@ -31307,7 +31259,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K843">
         <v>0.00310880829015544</v>
